--- a/probabilità_accettazione.xlsx
+++ b/probabilità_accettazione.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>(u,v) diretto</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>(1+px*py*alpha)/(1+dist)</t>
+  </si>
+  <si>
+    <t>exp(-(px-py)^2/(sqrt(2)*sqrt(px^2+py^2)))</t>
   </si>
 </sst>
 </file>
@@ -428,17 +431,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J11"/>
+  <dimension ref="B3:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" customWidth="1"/>
@@ -563,6 +566,109 @@
       <c r="J11" s="4">
         <f t="shared" si="0"/>
         <v>5.000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>0.25</v>
+      </c>
+      <c r="H15">
+        <v>0.5</v>
+      </c>
+      <c r="I15">
+        <v>0.75</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>-0.25</v>
+      </c>
+      <c r="G16" s="1">
+        <f xml:space="preserve"> EXP(-POWER(G$15-$F16,2)/(SQRT(2)*SQRT(POWER(G$15,2)+POWER($F16,2))))</f>
+        <v>0.60653065971263354</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" ref="H16:J19" si="2" xml:space="preserve"> EXP(-POWER(H$15-$F16,2)/(SQRT(2)*SQRT(POWER(H$15,2)+POWER($F16,2))))</f>
+        <v>0.49090116067563438</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.40884171979780415</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.3423690065241165</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>-0.5</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" ref="G17:G19" si="3" xml:space="preserve"> EXP(-POWER(G$15-$F17,2)/(SQRT(2)*SQRT(POWER(G$15,2)+POWER($F17,2))))</f>
+        <v>0.49090116067563438</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.36787944117144239</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.29354455524349682</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="2"/>
+        <v>0.24098394955268501</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>-0.75</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.40884171979780415</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.29354455524349682</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.22313016014842982</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="2"/>
+        <v>0.17685738353969294</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="3"/>
+        <v>0.3423690065241165</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="2"/>
+        <v>0.24098394955268501</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="2"/>
+        <v>0.17685738353969294</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.13533528323661276</v>
       </c>
     </row>
   </sheetData>

--- a/probabilità_accettazione.xlsx
+++ b/probabilità_accettazione.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>(u,v) diretto</t>
   </si>
@@ -38,13 +38,33 @@
   <si>
     <t>exp(-(px-py)^2/(sqrt(2)*sqrt(px^2+py^2)))</t>
   </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>P(U,V)</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P(V,U)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -124,12 +144,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -431,17 +468,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J19"/>
+  <dimension ref="B3:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" customWidth="1"/>
@@ -608,7 +645,7 @@
         <v>0.3423690065241165</v>
       </c>
     </row>
-    <row r="17" spans="6:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F17">
         <v>-0.5</v>
       </c>
@@ -629,7 +666,7 @@
         <v>0.24098394955268501</v>
       </c>
     </row>
-    <row r="18" spans="6:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:15" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>-0.75</v>
       </c>
@@ -650,7 +687,7 @@
         <v>0.17685738353969294</v>
       </c>
     </row>
-    <row r="19" spans="6:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>-1</v>
       </c>
@@ -671,7 +708,359 @@
         <v>0.13533528323661276</v>
       </c>
     </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>0.25</v>
+      </c>
+      <c r="H23">
+        <v>0.5</v>
+      </c>
+      <c r="I23">
+        <v>0.75</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>-0.25</v>
+      </c>
+      <c r="G24" s="1">
+        <f>EXP(G$23)-EXP($F24)</f>
+        <v>0.50522463361633652</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" ref="H24:J27" si="4">EXP(H$23)-EXP($F24)</f>
+        <v>0.86992048762872332</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3381992335412698</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="4"/>
+        <v>1.9394810453876401</v>
+      </c>
+      <c r="L24" s="1">
+        <f>EXP(-G24)</f>
+        <v>0.60337002301253762</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" ref="M24:O24" si="5">EXP(-H24)</f>
+        <v>0.41898486240315613</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="5"/>
+        <v>0.2623176162839323</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="5"/>
+        <v>0.14377854495933706</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>-0.5</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" ref="G25:G27" si="6">EXP(G$23)-EXP($F25)</f>
+        <v>0.67749475697510797</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0421906109874948</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5104693569000414</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="4"/>
+        <v>2.1117511687464114</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" ref="L25:L27" si="7">EXP(-G25)</f>
+        <v>0.50788778220604858</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" ref="M25:M27" si="8">EXP(-H25)</f>
+        <v>0.35268124770498183</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" ref="N25:N27" si="9">EXP(-I25)</f>
+        <v>0.22080631666590966</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" ref="O25:O27" si="10">EXP(-J25)</f>
+        <v>0.1210258440809098</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>-0.75</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="6"/>
+        <v>0.81165886394672671</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1763547179591134</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="4"/>
+        <v>1.64463346387166</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="4"/>
+        <v>2.2459152757180303</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="7"/>
+        <v>0.44412071896395322</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="8"/>
+        <v>0.30840090032387329</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="9"/>
+        <v>0.19308332183833005</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="10"/>
+        <v>0.10583063182375731</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>-1</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="6"/>
+        <v>0.91614597551629906</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="4"/>
+        <v>1.2808418295286859</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="4"/>
+        <v>1.7491205754412325</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="4"/>
+        <v>2.3504023872876028</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="7"/>
+        <v>0.40005790673422525</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="8"/>
+        <v>0.27780333893527065</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" si="9"/>
+        <v>0.17392683174099458</v>
+      </c>
+      <c r="O27" s="4">
+        <f t="shared" si="10"/>
+        <v>9.5330794596883456E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>0.25</v>
+      </c>
+      <c r="H31">
+        <v>0.5</v>
+      </c>
+      <c r="I31">
+        <v>0.75</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="4:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>-0.25</v>
+      </c>
+      <c r="G32" s="1">
+        <f>-EXP(-G$31)+EXP(-$F32)</f>
+        <v>0.50522463361633652</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" ref="H32:J35" si="11">-EXP(-H$31)+EXP(-$F32)</f>
+        <v>0.67749475697510797</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="11"/>
+        <v>0.81165886394672671</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="11"/>
+        <v>0.91614597551629906</v>
+      </c>
+      <c r="L32" s="1">
+        <f>EXP(-G32)</f>
+        <v>0.60337002301253762</v>
+      </c>
+      <c r="M32" s="1">
+        <f>EXP(-H32)</f>
+        <v>0.50788778220604858</v>
+      </c>
+      <c r="N32" s="1">
+        <f>EXP(-I32)</f>
+        <v>0.44412071896395322</v>
+      </c>
+      <c r="O32" s="2">
+        <f>EXP(-J32)</f>
+        <v>0.40005790673422525</v>
+      </c>
+    </row>
+    <row r="33" spans="5:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>-0.5</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" ref="G33:G35" si="12">-EXP(-G$31)+EXP(-$F33)</f>
+        <v>0.86992048762872332</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="11"/>
+        <v>1.0421906109874948</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="11"/>
+        <v>1.1763547179591134</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="11"/>
+        <v>1.2808418295286859</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" ref="L33:L35" si="13">EXP(-G33)</f>
+        <v>0.41898486240315613</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" ref="M33:M35" si="14">EXP(-H33)</f>
+        <v>0.35268124770498183</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" ref="N33:N35" si="15">EXP(-I33)</f>
+        <v>0.30840090032387329</v>
+      </c>
+      <c r="O33" s="2">
+        <f t="shared" ref="O33:O35" si="16">EXP(-J33)</f>
+        <v>0.27780333893527065</v>
+      </c>
+    </row>
+    <row r="34" spans="5:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>-0.75</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="12"/>
+        <v>1.3381992335412698</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="11"/>
+        <v>1.5104693569000414</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="11"/>
+        <v>1.64463346387166</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="11"/>
+        <v>1.7491205754412325</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="13"/>
+        <v>0.2623176162839323</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="14"/>
+        <v>0.22080631666590966</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="15"/>
+        <v>0.19308332183833005</v>
+      </c>
+      <c r="O34" s="2">
+        <f t="shared" si="16"/>
+        <v>0.17392683174099458</v>
+      </c>
+    </row>
+    <row r="35" spans="5:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>-1</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="12"/>
+        <v>1.9394810453876401</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="11"/>
+        <v>2.1117511687464114</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="11"/>
+        <v>2.2459152757180303</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="11"/>
+        <v>2.3504023872876028</v>
+      </c>
+      <c r="L35" s="3">
+        <f t="shared" si="13"/>
+        <v>0.14377854495933706</v>
+      </c>
+      <c r="M35" s="3">
+        <f t="shared" si="14"/>
+        <v>0.1210258440809098</v>
+      </c>
+      <c r="N35" s="3">
+        <f t="shared" si="15"/>
+        <v>0.10583063182375731</v>
+      </c>
+      <c r="O35" s="4">
+        <f t="shared" si="16"/>
+        <v>9.5330794596883456E-2</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H30:I30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
